--- a/data/trans_camb/IP04F-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP04F-Edad-trans_camb.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_camb/IP04F-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP04F-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -50,27 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -497,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -513,9 +492,6 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -527,22 +503,19 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="n"/>
+          <t>Niña</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Niño</t>
+        </is>
+      </c>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -554,27 +527,12 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
           <t>2016/2012</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2012</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2016/2012</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2012</t>
         </is>
       </c>
     </row>
@@ -584,9 +542,6 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
+          <t>0,55</t>
         </is>
       </c>
     </row>
@@ -639,32 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,13; 5,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,93; 5,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-2,75; 3,9</t>
         </is>
       </c>
     </row>
@@ -677,32 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>9,26%</t>
         </is>
       </c>
     </row>
@@ -715,32 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,02; 148,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,09; 127,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-37,48; 93,21</t>
         </is>
       </c>
     </row>
@@ -757,32 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
     </row>
@@ -795,32 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,76; 5,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,21; 3,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-2,94; 2,95</t>
         </is>
       </c>
     </row>
@@ -833,32 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>-0,29%</t>
         </is>
       </c>
     </row>
@@ -871,32 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,49; 64,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,25; 60,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-29,13; 40,61</t>
         </is>
       </c>
     </row>
@@ -913,32 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,13</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,9</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
+          <t>-5,02</t>
         </is>
       </c>
     </row>
@@ -951,32 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,67; -0,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,3; 1,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-8,92; -1,33</t>
         </is>
       </c>
     </row>
@@ -989,32 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,33%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,1%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>-41,9%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,12; -2,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,59; 15,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-62,09; -11,49</t>
         </is>
       </c>
     </row>
@@ -1069,32 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
+          <t>-1,3</t>
         </is>
       </c>
     </row>
@@ -1107,32 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,42; 4,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,18; 4,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-5,26; 2,71</t>
         </is>
       </c>
     </row>
@@ -1145,32 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,5%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,88%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>-10,71%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,27; 36,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,42; 55,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-37,14; 26,49</t>
         </is>
       </c>
     </row>
@@ -1225,32 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
+          <t>-1,32</t>
         </is>
       </c>
     </row>
@@ -1263,32 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,02; 1,06</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,65; 1,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-3,09; 0,63</t>
         </is>
       </c>
     </row>
@@ -1301,32 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,31%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,97%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>-13,64%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,82; 11,47</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,43; 14,4</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-29,15; 7,46</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1031,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
